--- a/Copia de Circuito Limpio Direcciones Villa del Cerro.xlsx
+++ b/Copia de Circuito Limpio Direcciones Villa del Cerro.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="600" windowWidth="28215" windowHeight="13995"/>
+    <workbookView xWindow="15060" yWindow="-45" windowWidth="13650" windowHeight="13995"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="203">
   <si>
     <t>codcomp</t>
   </si>
@@ -581,9 +581,6 @@
   </si>
   <si>
     <t>Francia 1706</t>
-  </si>
-  <si>
-    <t>P</t>
   </si>
   <si>
     <t>Francia 1730</t>
@@ -982,14 +979,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AD169"/>
+  <dimension ref="A1:AD994"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1033,7 +1030,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>113030601</v>
       </c>
@@ -1054,7 +1051,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>113030601</v>
       </c>
@@ -1075,7 +1072,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>113030601</v>
       </c>
@@ -1102,7 +1099,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>113030601</v>
       </c>
@@ -1129,7 +1126,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>113030601</v>
       </c>
@@ -1156,7 +1153,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>113030601</v>
       </c>
@@ -1173,7 +1170,7 @@
         <v>45100</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G7" s="5">
         <v>45129</v>
@@ -1183,7 +1180,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>113030007</v>
       </c>
@@ -1212,7 +1209,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>113030007</v>
       </c>
@@ -1241,7 +1238,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>113030007</v>
       </c>
@@ -1266,7 +1263,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>113030007</v>
       </c>
@@ -1297,7 +1294,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>113030007</v>
       </c>
@@ -1326,7 +1323,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>113030007</v>
       </c>
@@ -1355,7 +1352,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>113029010</v>
       </c>
@@ -1387,7 +1384,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>113029010</v>
       </c>
@@ -1408,7 +1405,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>113029010</v>
       </c>
@@ -1435,7 +1432,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>113029010</v>
       </c>
@@ -1456,7 +1453,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>113029010</v>
       </c>
@@ -1477,7 +1474,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>113029010</v>
       </c>
@@ -1504,7 +1501,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <v>113029008</v>
       </c>
@@ -1533,7 +1530,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
         <v>113029008</v>
       </c>
@@ -1562,7 +1559,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
         <v>113029008</v>
       </c>
@@ -1587,7 +1584,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
         <v>113029008</v>
       </c>
@@ -1616,7 +1613,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
         <v>113029008</v>
       </c>
@@ -1645,7 +1642,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11">
         <v>113029008</v>
       </c>
@@ -1674,7 +1671,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>113018011</v>
       </c>
@@ -1697,7 +1694,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>113018011</v>
       </c>
@@ -1721,7 +1718,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>113018011</v>
       </c>
@@ -1741,7 +1738,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>113018011</v>
       </c>
@@ -1765,7 +1762,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>113018011</v>
       </c>
@@ -1788,7 +1785,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>113018011</v>
       </c>
@@ -1809,7 +1806,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>113020003</v>
       </c>
@@ -1834,7 +1831,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>113020003</v>
       </c>
@@ -1859,7 +1856,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>113020003</v>
       </c>
@@ -1884,7 +1881,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>113020003</v>
       </c>
@@ -1911,7 +1908,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <v>113020003</v>
       </c>
@@ -1938,7 +1935,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>113020003</v>
       </c>
@@ -1963,7 +1960,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>113019001</v>
       </c>
@@ -1986,7 +1983,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>113019001</v>
       </c>
@@ -2007,7 +2004,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>113019001</v>
       </c>
@@ -2030,7 +2027,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>113019001</v>
       </c>
@@ -2050,7 +2047,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>113019001</v>
       </c>
@@ -2070,7 +2067,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>113019001</v>
       </c>
@@ -2094,7 +2091,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="11">
         <v>113029002</v>
       </c>
@@ -2123,7 +2120,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="11">
         <v>113029002</v>
       </c>
@@ -2148,7 +2145,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="11">
         <v>113029002</v>
       </c>
@@ -2165,7 +2162,7 @@
         <v>45100</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G46" s="14">
         <v>45129</v>
@@ -2177,7 +2174,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="11">
         <v>113029002</v>
       </c>
@@ -2206,7 +2203,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="11">
         <v>113029002</v>
       </c>
@@ -2231,7 +2228,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="11">
         <v>113029002</v>
       </c>
@@ -2256,7 +2253,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>113028002</v>
       </c>
@@ -2282,7 +2279,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>113028002</v>
       </c>
@@ -2314,7 +2311,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>113028002</v>
       </c>
@@ -2346,7 +2343,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>113028002</v>
       </c>
@@ -2378,7 +2375,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>113028002</v>
       </c>
@@ -2398,7 +2395,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>113028002</v>
       </c>
@@ -2418,7 +2415,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
         <v>113005003</v>
       </c>
@@ -2447,7 +2444,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="6">
         <v>113005003</v>
       </c>
@@ -2472,7 +2469,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
         <v>113005003</v>
       </c>
@@ -2497,7 +2494,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="6">
         <v>113005003</v>
       </c>
@@ -2522,7 +2519,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="6">
         <v>113005003</v>
       </c>
@@ -2547,7 +2544,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6">
         <v>113005003</v>
       </c>
@@ -2660,6 +2657,12 @@
       <c r="E65" s="5">
         <v>45101</v>
       </c>
+      <c r="F65" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G65" s="5">
+        <v>45108</v>
+      </c>
       <c r="K65" s="18">
         <v>27</v>
       </c>
@@ -2704,7 +2707,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="11">
         <v>113005001</v>
       </c>
@@ -2729,7 +2732,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="11">
         <v>113005001</v>
       </c>
@@ -2754,7 +2757,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="11">
         <v>113005001</v>
       </c>
@@ -2779,7 +2782,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="11">
         <v>113005001</v>
       </c>
@@ -2804,7 +2807,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="11">
         <v>113005001</v>
       </c>
@@ -2833,7 +2836,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="11">
         <v>113005001</v>
       </c>
@@ -2858,7 +2861,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>113019006</v>
       </c>
@@ -2878,7 +2881,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>113019006</v>
       </c>
@@ -2898,7 +2901,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>113019006</v>
       </c>
@@ -2918,7 +2921,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>113019006</v>
       </c>
@@ -2938,7 +2941,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>113019006</v>
       </c>
@@ -2958,7 +2961,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>113019006</v>
       </c>
@@ -2981,7 +2984,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="19">
         <v>113018014</v>
       </c>
@@ -3006,7 +3009,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="19">
         <v>113018014</v>
       </c>
@@ -3031,7 +3034,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="19">
         <v>113018014</v>
       </c>
@@ -3056,7 +3059,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="19">
         <v>113018014</v>
       </c>
@@ -3081,7 +3084,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="19">
         <v>113018014</v>
       </c>
@@ -3108,7 +3111,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="19">
         <v>113018014</v>
       </c>
@@ -3133,7 +3136,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="20">
         <v>113030004</v>
       </c>
@@ -3155,7 +3158,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="20">
         <v>113030004</v>
       </c>
@@ -3181,7 +3184,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="20">
         <v>113030004</v>
       </c>
@@ -3207,7 +3210,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="20">
         <v>113030004</v>
       </c>
@@ -3232,7 +3235,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="20">
         <v>113030004</v>
       </c>
@@ -3258,7 +3261,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="20">
         <v>113030004</v>
       </c>
@@ -3284,7 +3287,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="20">
         <v>113030004</v>
       </c>
@@ -3305,7 +3308,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="11">
         <v>113005009</v>
       </c>
@@ -3330,7 +3333,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="11">
         <v>113005009</v>
       </c>
@@ -3355,7 +3358,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="11">
         <v>113005009</v>
       </c>
@@ -3380,7 +3383,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>113004004</v>
       </c>
@@ -3400,7 +3403,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>113004004</v>
       </c>
@@ -3420,7 +3423,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <v>113004004</v>
       </c>
@@ -3440,7 +3443,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
         <v>113004004</v>
       </c>
@@ -3460,7 +3463,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
         <v>113004004</v>
       </c>
@@ -3480,7 +3483,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
         <v>113004004</v>
       </c>
@@ -3500,7 +3503,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="21">
         <v>113028600</v>
       </c>
@@ -3525,7 +3528,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="21">
         <v>113028600</v>
       </c>
@@ -3550,7 +3553,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="21">
         <v>113028600</v>
       </c>
@@ -3579,7 +3582,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="21">
         <v>113028600</v>
       </c>
@@ -3608,7 +3611,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="21">
         <v>113028600</v>
       </c>
@@ -3633,7 +3636,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="21">
         <v>113028600</v>
       </c>
@@ -3658,7 +3661,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="11">
         <v>113021017</v>
       </c>
@@ -3685,7 +3688,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="11">
         <v>113021017</v>
       </c>
@@ -3712,7 +3715,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="11">
         <v>113021017</v>
       </c>
@@ -3739,7 +3742,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="11">
         <v>113021017</v>
       </c>
@@ -3764,7 +3767,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="11">
         <v>113021017</v>
       </c>
@@ -3789,7 +3792,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="11">
         <v>113021017</v>
       </c>
@@ -3816,7 +3819,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="25">
         <v>113028007</v>
       </c>
@@ -3845,7 +3848,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="25">
         <v>113028007</v>
       </c>
@@ -3870,7 +3873,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="25">
         <v>113028007</v>
       </c>
@@ -3899,7 +3902,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="25">
         <v>113028007</v>
       </c>
@@ -3924,7 +3927,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="25">
         <v>113028007</v>
       </c>
@@ -3953,7 +3956,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="25">
         <v>113028007</v>
       </c>
@@ -3978,7 +3981,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
         <v>113005012</v>
       </c>
@@ -4007,7 +4010,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
         <v>113005012</v>
       </c>
@@ -4027,7 +4030,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
         <v>113005012</v>
       </c>
@@ -4056,7 +4059,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
         <v>113005012</v>
       </c>
@@ -4076,7 +4079,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="3">
         <v>113005012</v>
       </c>
@@ -4096,7 +4099,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="3">
         <v>113005012</v>
       </c>
@@ -4116,7 +4119,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="29">
         <v>113001006</v>
       </c>
@@ -4145,7 +4148,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="29">
         <v>113001006</v>
       </c>
@@ -4174,7 +4177,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="29">
         <v>113001006</v>
       </c>
@@ -4203,7 +4206,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="129" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:30" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="29">
         <v>113001006</v>
       </c>
@@ -4232,7 +4235,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="130" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:30" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="29">
         <v>113001006</v>
       </c>
@@ -4261,7 +4264,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="131" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:30" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="34">
         <v>113001006</v>
       </c>
@@ -4290,7 +4293,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="132" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:30" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="3">
         <v>113028004</v>
       </c>
@@ -4310,7 +4313,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="133" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:30" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="3">
         <v>113028004</v>
       </c>
@@ -4339,7 +4342,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="134" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:30" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
         <v>113028004</v>
       </c>
@@ -4365,7 +4368,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="135" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:30" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="3">
         <v>113028004</v>
       </c>
@@ -4398,7 +4401,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="136" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:30" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="3">
         <v>113028004</v>
       </c>
@@ -4419,7 +4422,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="137" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:30" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="3">
         <v>113028004</v>
       </c>
@@ -4445,7 +4448,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="138" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:30" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="3">
         <v>113028004</v>
       </c>
@@ -4471,7 +4474,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="139" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:30" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="11">
         <v>113019003</v>
       </c>
@@ -4515,7 +4518,7 @@
       <c r="AC139" s="15"/>
       <c r="AD139" s="15"/>
     </row>
-    <row r="140" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:30" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="11">
         <v>113019003</v>
       </c>
@@ -4559,7 +4562,7 @@
       <c r="AC140" s="15"/>
       <c r="AD140" s="15"/>
     </row>
-    <row r="141" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:30" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="11">
         <v>113019003</v>
       </c>
@@ -4603,7 +4606,7 @@
       <c r="AC141" s="15"/>
       <c r="AD141" s="15"/>
     </row>
-    <row r="142" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:30" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="11">
         <v>113019003</v>
       </c>
@@ -4647,7 +4650,7 @@
       <c r="AC142" s="15"/>
       <c r="AD142" s="15"/>
     </row>
-    <row r="143" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:30" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="11">
         <v>113019003</v>
       </c>
@@ -4691,7 +4694,7 @@
       <c r="AC143" s="15"/>
       <c r="AD143" s="15"/>
     </row>
-    <row r="144" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:30" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="11">
         <v>113019003</v>
       </c>
@@ -4735,7 +4738,7 @@
       <c r="AC144" s="15"/>
       <c r="AD144" s="15"/>
     </row>
-    <row r="145" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="36">
         <v>113019008</v>
       </c>
@@ -4755,7 +4758,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="146" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="36">
         <v>113019008</v>
       </c>
@@ -4775,7 +4778,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="147" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="36">
         <v>113019008</v>
       </c>
@@ -4798,7 +4801,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="148" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="36">
         <v>113019008</v>
       </c>
@@ -4818,7 +4821,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="149" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="36">
         <v>113019008</v>
       </c>
@@ -4838,7 +4841,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="150" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="36">
         <v>113019008</v>
       </c>
@@ -4858,7 +4861,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="151" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="11">
         <v>113005006</v>
       </c>
@@ -4883,7 +4886,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="152" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="11">
         <v>113005006</v>
       </c>
@@ -4908,7 +4911,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="153" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="11">
         <v>113005006</v>
       </c>
@@ -4937,7 +4940,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="11">
         <v>113005006</v>
       </c>
@@ -4948,7 +4951,7 @@
         <v>35</v>
       </c>
       <c r="D154" s="11" t="s">
-        <v>188</v>
+        <v>15</v>
       </c>
       <c r="E154" s="13">
         <v>45101</v>
@@ -4962,12 +4965,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="155" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="11">
         <v>113005006</v>
       </c>
       <c r="B155" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C155" s="11" t="s">
         <v>35</v>
@@ -4987,12 +4990,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="156" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="36">
         <v>113001001</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>35</v>
@@ -5007,12 +5010,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="36">
         <v>113001001</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>35</v>
@@ -5034,35 +5037,35 @@
         <v>54</v>
       </c>
     </row>
-    <row r="158" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="36">
         <v>113001001</v>
       </c>
       <c r="B158" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D158" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C158" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D158" s="1" t="s">
+      <c r="E158" s="4">
+        <v>45101</v>
+      </c>
+      <c r="J158" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="E158" s="4">
-        <v>45101</v>
-      </c>
-      <c r="J158" s="1" t="s">
-        <v>194</v>
       </c>
       <c r="K158" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="159" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="36">
         <v>113001001</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>35</v>
@@ -5084,12 +5087,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="160" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="36">
         <v>113001001</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>35</v>
@@ -5111,12 +5114,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="161" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="36">
         <v>113001001</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>35</v>
@@ -5131,12 +5134,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="162" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="11">
         <v>113001003</v>
       </c>
       <c r="B162" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C162" s="12" t="s">
         <v>35</v>
@@ -5160,12 +5163,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="163" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="11">
         <v>113001003</v>
       </c>
       <c r="B163" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C163" s="12" t="s">
         <v>35</v>
@@ -5189,12 +5192,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="164" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="36">
         <v>113005005</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>35</v>
@@ -5209,12 +5212,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="165" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="36">
         <v>113005005</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>35</v>
@@ -5229,12 +5232,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="166" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="36">
         <v>113005005</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>35</v>
@@ -5249,12 +5252,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="167" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="36">
         <v>113005005</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>35</v>
@@ -5269,7 +5272,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="168" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="36">
         <v>113030001</v>
       </c>
@@ -5280,7 +5283,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="169" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="36">
         <v>113030001</v>
       </c>
@@ -5291,8 +5294,839 @@
         <v>15</v>
       </c>
     </row>
+    <row r="170" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="A1:AD994"/>
+  <autoFilter ref="A1:AD994">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="0113004002"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Copia de Circuito Limpio Direcciones Villa del Cerro.xlsx
+++ b/Copia de Circuito Limpio Direcciones Villa del Cerro.xlsx
@@ -979,14 +979,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AD994"/>
+  <dimension ref="A1:AD169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E65" sqref="E65"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1030,7 +1030,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>113030601</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>113030601</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>113030601</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>113030601</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>113030601</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>113030601</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>113030007</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>113030007</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>113030007</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>113030007</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>113030007</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>113030007</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>113029010</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>113029010</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>113029010</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>113029010</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>113029010</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>113029010</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <v>113029008</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
         <v>113029008</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
         <v>113029008</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
         <v>113029008</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
         <v>113029008</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="11">
         <v>113029008</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>113018011</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>113018011</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>113018011</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>113018011</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>113018011</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>113018011</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>113020003</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>113020003</v>
       </c>
@@ -1856,7 +1856,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>113020003</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>113020003</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <v>113020003</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>113020003</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>113019001</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>113019001</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>113019001</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>113019001</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>113019001</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>113019001</v>
       </c>
@@ -2091,7 +2091,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="11">
         <v>113029002</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="11">
         <v>113029002</v>
       </c>
@@ -2145,7 +2145,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="11">
         <v>113029002</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="11">
         <v>113029002</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="11">
         <v>113029002</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="11">
         <v>113029002</v>
       </c>
@@ -2253,7 +2253,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>113028002</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>113028002</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>113028002</v>
       </c>
@@ -2343,7 +2343,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>113028002</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>113028002</v>
       </c>
@@ -2395,7 +2395,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>113028002</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
         <v>113005003</v>
       </c>
@@ -2444,7 +2444,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="6">
         <v>113005003</v>
       </c>
@@ -2469,7 +2469,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
         <v>113005003</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="6">
         <v>113005003</v>
       </c>
@@ -2519,7 +2519,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="6">
         <v>113005003</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="6">
         <v>113005003</v>
       </c>
@@ -2707,7 +2707,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="11">
         <v>113005001</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="11">
         <v>113005001</v>
       </c>
@@ -2757,7 +2757,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="11">
         <v>113005001</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="11">
         <v>113005001</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="11">
         <v>113005001</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="11">
         <v>113005001</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>113019006</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>113019006</v>
       </c>
@@ -2901,7 +2901,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>113019006</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>113019006</v>
       </c>
@@ -2941,7 +2941,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>113019006</v>
       </c>
@@ -2961,7 +2961,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>113019006</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="19">
         <v>113018014</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="19">
         <v>113018014</v>
       </c>
@@ -3034,7 +3034,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="19">
         <v>113018014</v>
       </c>
@@ -3059,7 +3059,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="19">
         <v>113018014</v>
       </c>
@@ -3084,7 +3084,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="19">
         <v>113018014</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="19">
         <v>113018014</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="20">
         <v>113030004</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="20">
         <v>113030004</v>
       </c>
@@ -3184,7 +3184,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="20">
         <v>113030004</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="20">
         <v>113030004</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="20">
         <v>113030004</v>
       </c>
@@ -3261,7 +3261,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="20">
         <v>113030004</v>
       </c>
@@ -3287,7 +3287,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="20">
         <v>113030004</v>
       </c>
@@ -3308,7 +3308,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="11">
         <v>113005009</v>
       </c>
@@ -3333,7 +3333,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="11">
         <v>113005009</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="11">
         <v>113005009</v>
       </c>
@@ -3383,7 +3383,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>113004004</v>
       </c>
@@ -3403,7 +3403,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>113004004</v>
       </c>
@@ -3423,7 +3423,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <v>113004004</v>
       </c>
@@ -3443,7 +3443,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
         <v>113004004</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
         <v>113004004</v>
       </c>
@@ -3483,7 +3483,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
         <v>113004004</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="21">
         <v>113028600</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="21">
         <v>113028600</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="21">
         <v>113028600</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="21">
         <v>113028600</v>
       </c>
@@ -3611,7 +3611,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="21">
         <v>113028600</v>
       </c>
@@ -3636,7 +3636,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="21">
         <v>113028600</v>
       </c>
@@ -3661,7 +3661,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="11">
         <v>113021017</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="11">
         <v>113021017</v>
       </c>
@@ -3715,7 +3715,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="11">
         <v>113021017</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="11">
         <v>113021017</v>
       </c>
@@ -3767,7 +3767,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="11">
         <v>113021017</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="11">
         <v>113021017</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="25">
         <v>113028007</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="25">
         <v>113028007</v>
       </c>
@@ -3873,7 +3873,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="25">
         <v>113028007</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="25">
         <v>113028007</v>
       </c>
@@ -3927,7 +3927,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="25">
         <v>113028007</v>
       </c>
@@ -3956,7 +3956,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="25">
         <v>113028007</v>
       </c>
@@ -3981,7 +3981,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
         <v>113005012</v>
       </c>
@@ -4010,7 +4010,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
         <v>113005012</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
         <v>113005012</v>
       </c>
@@ -4059,7 +4059,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
         <v>113005012</v>
       </c>
@@ -4079,7 +4079,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" s="3">
         <v>113005012</v>
       </c>
@@ -4099,7 +4099,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="3">
         <v>113005012</v>
       </c>
@@ -4119,7 +4119,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="29">
         <v>113001006</v>
       </c>
@@ -4148,7 +4148,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="29">
         <v>113001006</v>
       </c>
@@ -4177,7 +4177,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="29">
         <v>113001006</v>
       </c>
@@ -4206,7 +4206,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="129" spans="1:30" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="29">
         <v>113001006</v>
       </c>
@@ -4235,7 +4235,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="130" spans="1:30" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="29">
         <v>113001006</v>
       </c>
@@ -4264,7 +4264,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="131" spans="1:30" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" s="34">
         <v>113001006</v>
       </c>
@@ -4293,7 +4293,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="132" spans="1:30" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="3">
         <v>113028004</v>
       </c>
@@ -4313,7 +4313,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="133" spans="1:30" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="3">
         <v>113028004</v>
       </c>
@@ -4342,7 +4342,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="134" spans="1:30" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
         <v>113028004</v>
       </c>
@@ -4368,7 +4368,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="135" spans="1:30" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="3">
         <v>113028004</v>
       </c>
@@ -4401,7 +4401,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="136" spans="1:30" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" s="3">
         <v>113028004</v>
       </c>
@@ -4422,7 +4422,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="137" spans="1:30" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="3">
         <v>113028004</v>
       </c>
@@ -4448,7 +4448,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="138" spans="1:30" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A138" s="3">
         <v>113028004</v>
       </c>
@@ -4474,7 +4474,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="139" spans="1:30" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A139" s="11">
         <v>113019003</v>
       </c>
@@ -4518,7 +4518,7 @@
       <c r="AC139" s="15"/>
       <c r="AD139" s="15"/>
     </row>
-    <row r="140" spans="1:30" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A140" s="11">
         <v>113019003</v>
       </c>
@@ -4562,7 +4562,7 @@
       <c r="AC140" s="15"/>
       <c r="AD140" s="15"/>
     </row>
-    <row r="141" spans="1:30" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A141" s="11">
         <v>113019003</v>
       </c>
@@ -4606,7 +4606,7 @@
       <c r="AC141" s="15"/>
       <c r="AD141" s="15"/>
     </row>
-    <row r="142" spans="1:30" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A142" s="11">
         <v>113019003</v>
       </c>
@@ -4650,7 +4650,7 @@
       <c r="AC142" s="15"/>
       <c r="AD142" s="15"/>
     </row>
-    <row r="143" spans="1:30" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A143" s="11">
         <v>113019003</v>
       </c>
@@ -4694,7 +4694,7 @@
       <c r="AC143" s="15"/>
       <c r="AD143" s="15"/>
     </row>
-    <row r="144" spans="1:30" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="11">
         <v>113019003</v>
       </c>
@@ -4738,7 +4738,7 @@
       <c r="AC144" s="15"/>
       <c r="AD144" s="15"/>
     </row>
-    <row r="145" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A145" s="36">
         <v>113019008</v>
       </c>
@@ -4758,7 +4758,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="146" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A146" s="36">
         <v>113019008</v>
       </c>
@@ -4778,7 +4778,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="147" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A147" s="36">
         <v>113019008</v>
       </c>
@@ -4801,7 +4801,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="148" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A148" s="36">
         <v>113019008</v>
       </c>
@@ -4821,7 +4821,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="149" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A149" s="36">
         <v>113019008</v>
       </c>
@@ -4841,7 +4841,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="150" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" s="36">
         <v>113019008</v>
       </c>
@@ -4861,7 +4861,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="151" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A151" s="11">
         <v>113005006</v>
       </c>
@@ -4886,7 +4886,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="152" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A152" s="11">
         <v>113005006</v>
       </c>
@@ -4911,7 +4911,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="153" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A153" s="11">
         <v>113005006</v>
       </c>
@@ -4940,7 +4940,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A154" s="11">
         <v>113005006</v>
       </c>
@@ -4965,7 +4965,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="155" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A155" s="11">
         <v>113005006</v>
       </c>
@@ -4990,7 +4990,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="156" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A156" s="36">
         <v>113001001</v>
       </c>
@@ -5010,7 +5010,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A157" s="36">
         <v>113001001</v>
       </c>
@@ -5037,7 +5037,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="158" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A158" s="36">
         <v>113001001</v>
       </c>
@@ -5060,7 +5060,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="159" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A159" s="36">
         <v>113001001</v>
       </c>
@@ -5087,7 +5087,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="160" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A160" s="36">
         <v>113001001</v>
       </c>
@@ -5114,7 +5114,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="161" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A161" s="36">
         <v>113001001</v>
       </c>
@@ -5134,7 +5134,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="162" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A162" s="11">
         <v>113001003</v>
       </c>
@@ -5163,7 +5163,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="163" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A163" s="11">
         <v>113001003</v>
       </c>
@@ -5192,7 +5192,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="164" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A164" s="36">
         <v>113005005</v>
       </c>
@@ -5212,7 +5212,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="165" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A165" s="36">
         <v>113005005</v>
       </c>
@@ -5232,7 +5232,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="166" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A166" s="36">
         <v>113005005</v>
       </c>
@@ -5252,7 +5252,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="167" spans="1:11" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A167" s="36">
         <v>113005005</v>
       </c>
@@ -5272,7 +5272,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="168" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="36">
         <v>113030001</v>
       </c>
@@ -5283,7 +5283,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="169" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="36">
         <v>113030001</v>
       </c>
@@ -5294,839 +5294,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="170" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="A1:AD994">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="0113004002"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AD994"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>